--- a/datasets_produtos/ilheus/feijao_ilheus.xlsx
+++ b/datasets_produtos/ilheus/feijao_ilheus.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathe\Documents\NotebooksMateriais\UESC_IC\rede_neural_previsao_ccb_produtos_2021\datasets_produtos\ilheus\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathe\Documents\NotebooksMateriais\previsao_cestas\datasets_produtos\ilheus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08FAFF6C-CDDF-4840-8F57-88C36C8E2694}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CA10CB6-5057-4773-841A-85064DD4CA05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -677,7 +677,7 @@
   <dimension ref="A1:B247"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A187" workbookViewId="0">
-      <selection activeCell="B213" sqref="B213"/>
+      <selection activeCell="A214" sqref="A214"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2379,7 +2379,12 @@
       </c>
     </row>
     <row r="213" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A213" s="3"/>
+      <c r="A213" s="3">
+        <v>44804</v>
+      </c>
+      <c r="B213" s="6">
+        <v>38.840000000000003</v>
+      </c>
     </row>
     <row r="214" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="3"/>

--- a/datasets_produtos/ilheus/feijao_ilheus.xlsx
+++ b/datasets_produtos/ilheus/feijao_ilheus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathe\Documents\NotebooksMateriais\previsao_cestas\datasets_produtos\ilheus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CA10CB6-5057-4773-841A-85064DD4CA05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{598A1244-8554-4C9D-BDDB-8523106D416A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="93">
   <si>
     <t>ano</t>
   </si>
@@ -296,6 +296,9 @@
   </si>
   <si>
     <t>31-06-2022</t>
+  </si>
+  <si>
+    <t>31-09-2022</t>
   </si>
 </sst>
 </file>
@@ -676,8 +679,8 @@
   </sheetPr>
   <dimension ref="A1:B247"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A187" workbookViewId="0">
-      <selection activeCell="A214" sqref="A214"/>
+    <sheetView tabSelected="1" topLeftCell="A196" workbookViewId="0">
+      <selection activeCell="B215" sqref="B215"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2387,7 +2390,12 @@
       </c>
     </row>
     <row r="214" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A214" s="3"/>
+      <c r="A214" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B214" s="6">
+        <v>37.04</v>
+      </c>
     </row>
     <row r="215" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="3"/>
